--- a/G - Programming/Serial_Commands.xlsx
+++ b/G - Programming/Serial_Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Documents\Embedded sys Project\ECE6780_StandingDesk\G - Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48F81D96-9ADE-40E1-8EDC-B8ACABB0517A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF803A9-12ED-4270-B2AA-B77AA4712534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9420" xr2:uid="{1B8E9669-0C0D-4EBC-A3B7-C5135B470CAD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>COMMAND</t>
   </si>
@@ -92,6 +92,51 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>HSD</t>
+  </si>
+  <si>
+    <t>HS1</t>
+  </si>
+  <si>
+    <t>HS2</t>
+  </si>
+  <si>
+    <t>Hand Switch Seated</t>
+  </si>
+  <si>
+    <t>Hand Switch Standing</t>
+  </si>
+  <si>
+    <t>HSH</t>
+  </si>
+  <si>
+    <t>Hand Switch Home</t>
+  </si>
+  <si>
+    <t>Start homing calibration</t>
+  </si>
+  <si>
+    <t>Refresh all data</t>
+  </si>
+  <si>
+    <t>Request all data from MCU at connect.</t>
+  </si>
+  <si>
+    <t>LIL</t>
+  </si>
+  <si>
+    <t>HMI Object</t>
+  </si>
+  <si>
+    <t>LIR</t>
+  </si>
+  <si>
+    <t>Level Indicator Left</t>
+  </si>
+  <si>
+    <t>Level Indicator Right</t>
   </si>
 </sst>
 </file>
@@ -458,17 +503,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41545E76-BF23-4632-A02C-DADB5C418F7E}">
-  <dimension ref="A4:F7"/>
+  <dimension ref="A4:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -512,7 +557,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -542,6 +587,72 @@
       </c>
       <c r="F7" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
